--- a/Android/IPC/Binder/Binder.xlsx
+++ b/Android/IPC/Binder/Binder.xlsx
@@ -7,16 +7,18 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7770"/>
   </bookViews>
   <sheets>
-    <sheet name="IPC机制" sheetId="3" r:id="rId1"/>
-    <sheet name="Android Binder机制" sheetId="2" r:id="rId2"/>
-    <sheet name="Binder驱动概述" sheetId="4" r:id="rId3"/>
+    <sheet name="目录" sheetId="5" r:id="rId1"/>
+    <sheet name="IPC机制" sheetId="3" r:id="rId2"/>
+    <sheet name="Binder机制" sheetId="2" r:id="rId3"/>
+    <sheet name="Binder驱动概述" sheetId="4" r:id="rId4"/>
+    <sheet name="参考资料" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="170">
   <si>
     <t>●</t>
   </si>
@@ -532,12 +534,60 @@
     <t xml:space="preserve">    struct binder_proc *proc; // binder进程 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binder机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPC机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,6 +621,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -598,7 +663,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -606,13 +671,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -640,9 +724,25 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4850,15 +4950,279 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:D36"/>
+  <dimension ref="B4:D34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4">
+      <c r="B4" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="10">
+        <v>2</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="10">
+        <v>3</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="10">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="10">
+        <v>6</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="10">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="10">
+        <v>8</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="10">
+        <v>9</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="10">
+        <v>10</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="10">
+        <v>11</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="10">
+        <v>12</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="10">
+        <v>13</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="10">
+        <v>14</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="10">
+        <v>15</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="10">
+        <v>16</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="10">
+        <v>17</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="10">
+        <v>18</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="10">
+        <v>19</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="10">
+        <v>20</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="10">
+        <v>21</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="10">
+        <v>22</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="10">
+        <v>23</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="10">
+        <v>24</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="10">
+        <v>25</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="10">
+        <v>26</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="10">
+        <v>27</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="10">
+        <v>28</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="10">
+        <v>29</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:D4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C8" location="Binder驱动概述!A1" display="Binder驱动概述"/>
+    <hyperlink ref="C7" location="Binder机制!A1" display="Binder机制"/>
+    <hyperlink ref="C6" location="IPC机制!A1" display="IPC机制"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <sheetData>
-    <row r="3" spans="3:4" s="1" customFormat="1">
+    <row r="1" spans="1:4">
+      <c r="A1" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4866,51 +5230,51 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="3:4" outlineLevel="1">
+    <row r="4" spans="1:4" outlineLevel="1">
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:4" outlineLevel="1">
+    <row r="5" spans="1:4" outlineLevel="1">
       <c r="D5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:4" outlineLevel="1"/>
-    <row r="7" spans="3:4" outlineLevel="1">
+    <row r="6" spans="1:4" outlineLevel="1"/>
+    <row r="7" spans="1:4" outlineLevel="1">
       <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="3:4" outlineLevel="1">
+    <row r="8" spans="1:4" outlineLevel="1">
       <c r="D8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="3:4" outlineLevel="1"/>
-    <row r="10" spans="3:4" outlineLevel="1">
+    <row r="9" spans="1:4" outlineLevel="1"/>
+    <row r="10" spans="1:4" outlineLevel="1">
       <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="3:4" outlineLevel="1">
+    <row r="11" spans="1:4" outlineLevel="1">
       <c r="D11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="3:4" outlineLevel="1"/>
-    <row r="13" spans="3:4" outlineLevel="1">
+    <row r="12" spans="1:4" outlineLevel="1"/>
+    <row r="13" spans="1:4" outlineLevel="1">
       <c r="D13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="3:4" outlineLevel="1">
+    <row r="14" spans="1:4" outlineLevel="1">
       <c r="D14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="3:4" outlineLevel="1"/>
-    <row r="16" spans="3:4" outlineLevel="1">
+    <row r="15" spans="1:4" outlineLevel="1"/>
+    <row r="16" spans="1:4" outlineLevel="1">
       <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
@@ -4984,22 +5348,28 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" display="Back"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E4:U147"/>
+  <dimension ref="A1:U147"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <sheetData>
-    <row r="4" spans="5:7" s="1" customFormat="1">
+    <row r="1" spans="1:7">
+      <c r="A1" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1">
       <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
@@ -5007,38 +5377,38 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="5:7">
+    <row r="6" spans="1:7">
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="5:7" outlineLevel="1">
+    <row r="7" spans="1:7" outlineLevel="1">
       <c r="G7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="5:7" outlineLevel="1">
+    <row r="8" spans="1:7" outlineLevel="1">
       <c r="G8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="5:7" outlineLevel="1">
+    <row r="9" spans="1:7" outlineLevel="1">
       <c r="G9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="5:7" outlineLevel="1"/>
-    <row r="11" spans="5:7" outlineLevel="1">
+    <row r="10" spans="1:7" outlineLevel="1"/>
+    <row r="11" spans="1:7" outlineLevel="1">
       <c r="G11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="5:7">
+    <row r="14" spans="1:7">
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="5:7" outlineLevel="1"/>
+    <row r="16" spans="1:7" outlineLevel="1"/>
     <row r="17" spans="6:6" outlineLevel="1"/>
     <row r="18" spans="6:6" outlineLevel="1"/>
     <row r="19" spans="6:6" outlineLevel="1"/>
@@ -5370,23 +5740,29 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" display="Back"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E2:AR139"/>
+  <dimension ref="A1:AR139"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A134" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I147" sqref="I147"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <sheetData>
-    <row r="2" spans="5:6">
+    <row r="1" spans="1:6">
+      <c r="A1" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="E2" s="2" t="s">
         <v>89</v>
       </c>
@@ -5394,22 +5770,22 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="5:6">
+    <row r="3" spans="1:6">
       <c r="F3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="5:6">
+    <row r="4" spans="1:6">
       <c r="F4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="5:6">
+    <row r="5" spans="1:6">
       <c r="F5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="5:6" s="1" customFormat="1">
+    <row r="8" spans="1:6" s="1" customFormat="1">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -5417,30 +5793,30 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="5:6" s="4" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="9" spans="1:6" s="4" customFormat="1" hidden="1" outlineLevel="1">
       <c r="F9" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="5:6" hidden="1" outlineLevel="1">
+    <row r="10" spans="1:6" hidden="1" outlineLevel="1">
       <c r="F10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="5:6" hidden="1" outlineLevel="1">
+    <row r="11" spans="1:6" hidden="1" outlineLevel="1">
       <c r="F11" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="5:6" hidden="1" outlineLevel="1">
+    <row r="12" spans="1:6" hidden="1" outlineLevel="1">
       <c r="F12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="5:6" hidden="1" outlineLevel="1"/>
-    <row r="14" spans="5:6" hidden="1" outlineLevel="1"/>
-    <row r="15" spans="5:6" hidden="1" outlineLevel="1"/>
-    <row r="16" spans="5:6" hidden="1" outlineLevel="1"/>
+    <row r="13" spans="1:6" hidden="1" outlineLevel="1"/>
+    <row r="14" spans="1:6" hidden="1" outlineLevel="1"/>
+    <row r="15" spans="1:6" hidden="1" outlineLevel="1"/>
+    <row r="16" spans="1:6" hidden="1" outlineLevel="1"/>
     <row r="17" spans="6:6" hidden="1" outlineLevel="1"/>
     <row r="18" spans="6:6" hidden="1" outlineLevel="1"/>
     <row r="19" spans="6:6" hidden="1" outlineLevel="1"/>
@@ -7762,8 +8138,26 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" display="Back"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>